--- a/data_year/zb/公共管理、社会保障及其他/公安机关立案的刑事案件.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/公安机关立案的刑事案件.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,841 +493,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120778</v>
+        <v>174990</v>
       </c>
       <c r="C2" t="n">
-        <v>15863</v>
+        <v>1565</v>
       </c>
       <c r="D2" t="n">
-        <v>575134</v>
+        <v>812067</v>
       </c>
       <c r="E2" t="n">
-        <v>3637307</v>
+        <v>5969892</v>
       </c>
       <c r="F2" t="n">
-        <v>35819</v>
+        <v>33696</v>
       </c>
       <c r="G2" t="n">
-        <v>309818</v>
+        <v>237258</v>
       </c>
       <c r="H2" t="n">
-        <v>23163</v>
+        <v>10082</v>
       </c>
       <c r="I2" t="n">
-        <v>28429</v>
+        <v>13410</v>
       </c>
       <c r="J2" t="n">
-        <v>2373696</v>
+        <v>4228369</v>
       </c>
       <c r="K2" t="n">
-        <v>152614</v>
+        <v>457350</v>
       </c>
       <c r="L2" t="n">
-        <v>1993</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138100</v>
+        <v>165097</v>
       </c>
       <c r="C3" t="n">
-        <v>5780</v>
+        <v>688</v>
       </c>
       <c r="D3" t="n">
-        <v>769224</v>
+        <v>831581</v>
       </c>
       <c r="E3" t="n">
-        <v>4457579</v>
+        <v>6004951</v>
       </c>
       <c r="F3" t="n">
-        <v>40600</v>
+        <v>33336</v>
       </c>
       <c r="G3" t="n">
-        <v>352216</v>
+        <v>202623</v>
       </c>
       <c r="H3" t="n">
-        <v>7008</v>
+        <v>13964</v>
       </c>
       <c r="I3" t="n">
-        <v>27501</v>
+        <v>12015</v>
       </c>
       <c r="J3" t="n">
-        <v>2924512</v>
+        <v>4259484</v>
       </c>
       <c r="K3" t="n">
-        <v>190854</v>
+        <v>484813</v>
       </c>
       <c r="L3" t="n">
-        <v>1784</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141825</v>
+        <v>163620</v>
       </c>
       <c r="C4" t="n">
-        <v>5238</v>
+        <v>2194</v>
       </c>
       <c r="D4" t="n">
-        <v>710814</v>
+        <v>1299746</v>
       </c>
       <c r="E4" t="n">
-        <v>4337036</v>
+        <v>6551440</v>
       </c>
       <c r="F4" t="n">
-        <v>38209</v>
+        <v>33835</v>
       </c>
       <c r="G4" t="n">
-        <v>354926</v>
+        <v>180159</v>
       </c>
       <c r="H4" t="n">
-        <v>5684</v>
+        <v>18532</v>
       </c>
       <c r="I4" t="n">
-        <v>26276</v>
+        <v>11286</v>
       </c>
       <c r="J4" t="n">
-        <v>2861727</v>
+        <v>4284670</v>
       </c>
       <c r="K4" t="n">
-        <v>191188</v>
+        <v>555823</v>
       </c>
       <c r="L4" t="n">
-        <v>1149</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145485</v>
+        <v>161910</v>
       </c>
       <c r="C5" t="n">
-        <v>3151</v>
+        <v>768</v>
       </c>
       <c r="D5" t="n">
-        <v>701537</v>
+        <v>1038861</v>
       </c>
       <c r="E5" t="n">
-        <v>4393893</v>
+        <v>6598247</v>
       </c>
       <c r="F5" t="n">
-        <v>40088</v>
+        <v>34102</v>
       </c>
       <c r="G5" t="n">
-        <v>340077</v>
+        <v>146193</v>
       </c>
       <c r="H5" t="n">
-        <v>3721</v>
+        <v>20735</v>
       </c>
       <c r="I5" t="n">
-        <v>24393</v>
+        <v>10640</v>
       </c>
       <c r="J5" t="n">
-        <v>2940598</v>
+        <v>4506414</v>
       </c>
       <c r="K5" t="n">
-        <v>193665</v>
+        <v>676771</v>
       </c>
       <c r="L5" t="n">
-        <v>1178</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148623</v>
+        <v>140709</v>
       </c>
       <c r="C6" t="n">
-        <v>2315</v>
+        <v>899</v>
       </c>
       <c r="D6" t="n">
-        <v>741426</v>
+        <v>1003541</v>
       </c>
       <c r="E6" t="n">
-        <v>4718122</v>
+        <v>6539692</v>
       </c>
       <c r="F6" t="n">
-        <v>36175</v>
+        <v>33417</v>
       </c>
       <c r="G6" t="n">
-        <v>341908</v>
+        <v>111187</v>
       </c>
       <c r="H6" t="n">
-        <v>3343</v>
+        <v>16483</v>
       </c>
       <c r="I6" t="n">
-        <v>24711</v>
+        <v>10083</v>
       </c>
       <c r="J6" t="n">
-        <v>3212822</v>
+        <v>4435984</v>
       </c>
       <c r="K6" t="n">
-        <v>205844</v>
+        <v>785306</v>
       </c>
       <c r="L6" t="n">
-        <v>955</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155056</v>
+        <v>132242</v>
       </c>
       <c r="C7" t="n">
-        <v>1858</v>
+        <v>992</v>
       </c>
       <c r="D7" t="n">
-        <v>739156</v>
+        <v>978157</v>
       </c>
       <c r="E7" t="n">
-        <v>4648401</v>
+        <v>7174037</v>
       </c>
       <c r="F7" t="n">
-        <v>33710</v>
+        <v>29948</v>
       </c>
       <c r="G7" t="n">
-        <v>332196</v>
+        <v>86747</v>
       </c>
       <c r="H7" t="n">
-        <v>2884</v>
+        <v>9150</v>
       </c>
       <c r="I7" t="n">
-        <v>20770</v>
+        <v>9200</v>
       </c>
       <c r="J7" t="n">
-        <v>3158763</v>
+        <v>4875561</v>
       </c>
       <c r="K7" t="n">
-        <v>203083</v>
+        <v>1049841</v>
       </c>
       <c r="L7" t="n">
-        <v>925</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162458</v>
+        <v>123818</v>
       </c>
       <c r="C8" t="n">
-        <v>1814</v>
+        <v>1163</v>
       </c>
       <c r="D8" t="n">
-        <v>775098</v>
+        <v>910918</v>
       </c>
       <c r="E8" t="n">
-        <v>4744136</v>
+        <v>6427533</v>
       </c>
       <c r="F8" t="n">
-        <v>32553</v>
+        <v>27767</v>
       </c>
       <c r="G8" t="n">
-        <v>315682</v>
+        <v>61428</v>
       </c>
       <c r="H8" t="n">
-        <v>2565</v>
+        <v>7121</v>
       </c>
       <c r="I8" t="n">
-        <v>17973</v>
+        <v>8634</v>
       </c>
       <c r="J8" t="n">
-        <v>3216293</v>
+        <v>4304321</v>
       </c>
       <c r="K8" t="n">
-        <v>218726</v>
+        <v>979956</v>
       </c>
       <c r="L8" t="n">
-        <v>974</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>167207</v>
+        <v>111124</v>
       </c>
       <c r="C9" t="n">
-        <v>1755</v>
+        <v>1467</v>
       </c>
       <c r="D9" t="n">
-        <v>786151</v>
+        <v>897825</v>
       </c>
       <c r="E9" t="n">
-        <v>4807517</v>
+        <v>5482570</v>
       </c>
       <c r="F9" t="n">
-        <v>31883</v>
+        <v>27664</v>
       </c>
       <c r="G9" t="n">
-        <v>292549</v>
+        <v>39230</v>
       </c>
       <c r="H9" t="n">
-        <v>2378</v>
+        <v>6668</v>
       </c>
       <c r="I9" t="n">
-        <v>16119</v>
+        <v>7990</v>
       </c>
       <c r="J9" t="n">
-        <v>3268670</v>
+        <v>3459742</v>
       </c>
       <c r="K9" t="n">
-        <v>239698</v>
+        <v>927583</v>
       </c>
       <c r="L9" t="n">
-        <v>1107</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160429</v>
+        <v>97391</v>
       </c>
       <c r="C10" t="n">
-        <v>1345</v>
+        <v>1216</v>
       </c>
       <c r="D10" t="n">
-        <v>724784</v>
+        <v>955482</v>
       </c>
       <c r="E10" t="n">
-        <v>4884960</v>
+        <v>5069242</v>
       </c>
       <c r="F10" t="n">
-        <v>30248</v>
+        <v>29807</v>
       </c>
       <c r="G10" t="n">
-        <v>276372</v>
+        <v>25413</v>
       </c>
       <c r="H10" t="n">
-        <v>2566</v>
+        <v>5397</v>
       </c>
       <c r="I10" t="n">
-        <v>14811</v>
+        <v>7525</v>
       </c>
       <c r="J10" t="n">
-        <v>3399600</v>
+        <v>2786804</v>
       </c>
       <c r="K10" t="n">
-        <v>273763</v>
+        <v>1156351</v>
       </c>
       <c r="L10" t="n">
-        <v>1042</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172840</v>
+        <v>85226</v>
       </c>
       <c r="C11" t="n">
-        <v>4758</v>
+        <v>994</v>
       </c>
       <c r="D11" t="n">
-        <v>793397</v>
+        <v>1016407</v>
       </c>
       <c r="E11" t="n">
-        <v>5579915</v>
+        <v>4862443</v>
       </c>
       <c r="F11" t="n">
-        <v>33286</v>
+        <v>33827</v>
       </c>
       <c r="G11" t="n">
-        <v>283243</v>
+        <v>17106</v>
       </c>
       <c r="H11" t="n">
-        <v>6513</v>
+        <v>4571</v>
       </c>
       <c r="I11" t="n">
-        <v>14667</v>
+        <v>7379</v>
       </c>
       <c r="J11" t="n">
-        <v>3888579</v>
+        <v>2258236</v>
       </c>
       <c r="K11" t="n">
-        <v>381432</v>
+        <v>1433831</v>
       </c>
       <c r="L11" t="n">
-        <v>1200</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174990</v>
+        <v>79662</v>
       </c>
       <c r="C12" t="n">
-        <v>1565</v>
+        <v>750</v>
       </c>
       <c r="D12" t="n">
-        <v>812067</v>
+        <v>1066445</v>
       </c>
       <c r="E12" t="n">
-        <v>5969892</v>
+        <v>4780624</v>
       </c>
       <c r="F12" t="n">
-        <v>33696</v>
+        <v>33579</v>
       </c>
       <c r="G12" t="n">
-        <v>237258</v>
+        <v>11303</v>
       </c>
       <c r="H12" t="n">
-        <v>10082</v>
+        <v>3035</v>
       </c>
       <c r="I12" t="n">
-        <v>13410</v>
+        <v>7157</v>
       </c>
       <c r="J12" t="n">
-        <v>4228369</v>
+        <v>1658609</v>
       </c>
       <c r="K12" t="n">
-        <v>457350</v>
+        <v>1915429</v>
       </c>
       <c r="L12" t="n">
-        <v>1105</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>165097</v>
+        <v>82476</v>
       </c>
       <c r="C13" t="n">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="D13" t="n">
-        <v>831581</v>
+        <v>1324198</v>
       </c>
       <c r="E13" t="n">
-        <v>6004951</v>
+        <v>5027829</v>
       </c>
       <c r="F13" t="n">
-        <v>33336</v>
+        <v>39577</v>
       </c>
       <c r="G13" t="n">
-        <v>202623</v>
+        <v>9700</v>
       </c>
       <c r="H13" t="n">
-        <v>13964</v>
+        <v>2860</v>
       </c>
       <c r="I13" t="n">
-        <v>12015</v>
+        <v>6522</v>
       </c>
       <c r="J13" t="n">
-        <v>4259484</v>
+        <v>1602450</v>
       </c>
       <c r="K13" t="n">
-        <v>484813</v>
+        <v>1954276</v>
       </c>
       <c r="L13" t="n">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>163620</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2194</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1299746</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6551440</v>
-      </c>
-      <c r="F14" t="n">
-        <v>33835</v>
-      </c>
-      <c r="G14" t="n">
-        <v>180159</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18532</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11286</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4284670</v>
-      </c>
-      <c r="K14" t="n">
-        <v>555823</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>161910</v>
-      </c>
-      <c r="C15" t="n">
-        <v>768</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1038861</v>
-      </c>
-      <c r="E15" t="n">
-        <v>6598247</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34102</v>
-      </c>
-      <c r="G15" t="n">
-        <v>146193</v>
-      </c>
-      <c r="H15" t="n">
-        <v>20735</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10640</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4506414</v>
-      </c>
-      <c r="K15" t="n">
-        <v>676771</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>140709</v>
-      </c>
-      <c r="C16" t="n">
-        <v>899</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1003541</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6539692</v>
-      </c>
-      <c r="F16" t="n">
-        <v>33417</v>
-      </c>
-      <c r="G16" t="n">
-        <v>111187</v>
-      </c>
-      <c r="H16" t="n">
-        <v>16483</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10083</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4435984</v>
-      </c>
-      <c r="K16" t="n">
-        <v>785306</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>132242</v>
-      </c>
-      <c r="C17" t="n">
-        <v>992</v>
-      </c>
-      <c r="D17" t="n">
-        <v>978157</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7174037</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29948</v>
-      </c>
-      <c r="G17" t="n">
-        <v>86747</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9150</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9200</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4875561</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1049841</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>123818</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1163</v>
-      </c>
-      <c r="D18" t="n">
-        <v>910918</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6427533</v>
-      </c>
-      <c r="F18" t="n">
-        <v>27767</v>
-      </c>
-      <c r="G18" t="n">
-        <v>61428</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7121</v>
-      </c>
-      <c r="I18" t="n">
-        <v>8634</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4304321</v>
-      </c>
-      <c r="K18" t="n">
-        <v>979956</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>111124</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1467</v>
-      </c>
-      <c r="D19" t="n">
-        <v>897825</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5482570</v>
-      </c>
-      <c r="F19" t="n">
-        <v>27664</v>
-      </c>
-      <c r="G19" t="n">
-        <v>39230</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6668</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7990</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3459742</v>
-      </c>
-      <c r="K19" t="n">
-        <v>927583</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3277</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>97391</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1216</v>
-      </c>
-      <c r="D20" t="n">
-        <v>955482</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5069242</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29807</v>
-      </c>
-      <c r="G20" t="n">
-        <v>25413</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5397</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7525</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2786804</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1156351</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3856</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>85226</v>
-      </c>
-      <c r="C21" t="n">
-        <v>994</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1016407</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4862443</v>
-      </c>
-      <c r="F21" t="n">
-        <v>33827</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17106</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4571</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7379</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2258236</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1433831</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4866</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>79662</v>
-      </c>
-      <c r="C22" t="n">
-        <v>750</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1066445</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4780624</v>
-      </c>
-      <c r="F22" t="n">
-        <v>33579</v>
-      </c>
-      <c r="G22" t="n">
-        <v>11303</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3035</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7157</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1658609</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1915429</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4655</v>
+        <v>5057</v>
       </c>
     </row>
   </sheetData>
